--- a/Assets/Resources/ExcelDB/StatUpgradeDB.xlsx
+++ b/Assets/Resources/ExcelDB/StatUpgradeDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705E8146-2C7F-4B0E-AD31-893ACEF08545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31885643-3127-49CD-A880-C047FBFF93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,14 +443,22 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -618,10 +626,45 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>

--- a/Assets/Resources/ExcelDB/StatUpgradeDB.xlsx
+++ b/Assets/Resources/ExcelDB/StatUpgradeDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31885643-3127-49CD-A880-C047FBFF93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A5EC8-2832-408B-99C7-07AE31DA4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,66 @@
   <si>
     <t>AtkGrowRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,28 +500,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.625" customWidth="1"/>
+    <col min="14" max="14" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -472,37 +537,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -516,13 +599,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -534,16 +617,34 @@
         <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -554,37 +655,55 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="S3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>100</v>
       </c>
@@ -598,34 +717,52 @@
         <v>100</v>
       </c>
       <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3">
         <v>500</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>1.05</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
         <v>500</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>1.01</v>
       </c>
-      <c r="L4" s="3">
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
         <v>500</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="3">
         <v>1.01</v>
       </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -636,16 +773,16 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.3</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
-        <v>1.2</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -654,26 +791,45 @@
         <v>1.2</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
         <v>1.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
       <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>1.2</v>
       </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Resources/ExcelDB/StatUpgradeDB.xlsx
+++ b/Assets/Resources/ExcelDB/StatUpgradeDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A5EC8-2832-408B-99C7-07AE31DA4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5F70D-A255-4604-9BA4-DA0AF345A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,131 +25,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>MaxHealthGrowRate</t>
+  </si>
+  <si>
+    <t>AtkBaseCost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefBaseCost</t>
+  </si>
+  <si>
+    <t>DefGrowRate</t>
+  </si>
+  <si>
+    <t>ReduceDamageBaseCost</t>
+  </si>
+  <si>
+    <t>ReduceDamageGrowRate</t>
+  </si>
+  <si>
+    <t>CriticalRateBaseCost</t>
+  </si>
+  <si>
+    <t>CriticalRateGrowRate</t>
+  </si>
+  <si>
+    <t>CriticalDamageBaseCost</t>
+  </si>
+  <si>
+    <t>CriticalDamageGrowRate</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>MaxHealthBaseCost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MaxHealthGrowRate</t>
-  </si>
-  <si>
-    <t>AtkBaseCost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkAtkGrowRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkGrowRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageBaseStat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageBaseStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthBaseCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthGrowRateCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBaseGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DefBaseCost</t>
-  </si>
-  <si>
-    <t>DefGrowRate</t>
-  </si>
-  <si>
-    <t>ReduceDamageBaseCost</t>
-  </si>
-  <si>
-    <t>ReduceDamageGrowRate</t>
-  </si>
-  <si>
-    <t>CriticalRateBaseCost</t>
-  </si>
-  <si>
-    <t>CriticalRateGrowRate</t>
-  </si>
-  <si>
-    <t>CriticalDamageBaseCost</t>
-  </si>
-  <si>
-    <t>CriticalDamageGrowRate</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealthBaseCost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealthGrowRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkAtkGrowRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkGrowRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealthBaseStat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealthBaseStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkBaseStat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkBaseStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefBaseStat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefBaseStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReduceDamageBaseCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReduceDamageBaseStat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReduceDamageBaseStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRateBaseCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRateBaseStat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRateBaseStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamageBaseCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamageBaseStat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamageBaseStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefGrowCost</t>
+  </si>
+  <si>
+    <t>DefGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceDamageGrowCost</t>
+  </si>
+  <si>
+    <t>ReduceDamageGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRateGrowCost</t>
+  </si>
+  <si>
+    <t>CriticalRateGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageGrowCost</t>
+  </si>
+  <si>
+    <t>CriticalDamageGrowCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,210 +553,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.625" customWidth="1"/>
-    <col min="14" max="14" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.625" customWidth="1"/>
     <col min="18" max="18" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.375" customWidth="1"/>
+    <col min="20" max="20" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.625" customWidth="1"/>
+    <col min="24" max="24" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>32</v>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>33</v>
+      <c r="Y3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>100</v>
       </c>
@@ -714,55 +829,73 @@
         <v>1.3</v>
       </c>
       <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
+      <c r="K4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J4" s="3">
-        <v>50</v>
-      </c>
-      <c r="K4" s="3">
-        <v>500</v>
-      </c>
       <c r="L4" s="3">
-        <v>1.05</v>
+        <v>10</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="3">
         <v>500</v>
       </c>
       <c r="O4" s="3">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="3">
         <v>500</v>
       </c>
-      <c r="R4" s="3">
-        <v>1.01</v>
-      </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="3">
+        <v>10</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>500</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -770,28 +903,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.2</v>
-      </c>
       <c r="J5" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -800,36 +933,57 @@
         <v>1.2</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>1.2</v>
       </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
       <c r="Q5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
         <v>1.2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Y5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="4"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
